--- a/biology/Médecine/CIM-10_Chapitre_12___Maladies_de_la_peau_et_du_tissu_cellulaire_sous-cutané/CIM-10_Chapitre_12___Maladies_de_la_peau_et_du_tissu_cellulaire_sous-cutané.xlsx
+++ b/biology/Médecine/CIM-10_Chapitre_12___Maladies_de_la_peau_et_du_tissu_cellulaire_sous-cutané/CIM-10_Chapitre_12___Maladies_de_la_peau_et_du_tissu_cellulaire_sous-cutané.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_12_:_Maladies_de_la_peau_et_du_tissu_cellulaire_sous-cutan%C3%A9</t>
+          <t>CIM-10_Chapitre_12_:_Maladies_de_la_peau_et_du_tissu_cellulaire_sous-cutané</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article développe le chapitre XII de la classification internationale des maladies.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_12_:_Maladies_de_la_peau_et_du_tissu_cellulaire_sous-cutan%C3%A9</t>
+          <t>CIM-10_Chapitre_12_:_Maladies_de_la_peau_et_du_tissu_cellulaire_sous-cutané</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,48 @@
           <t>Liste des classes du chapitre 12</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>CIM-10 Chapitre 12 : Maladies de la peau et du tissu cellulaire sous-cutané (L00-L99)
-(L00-L08) Infections de la peau et du tissu cellulaire sous-cutané
-(L00) Syndrome d'épidermolyse staphylococcique du nourrisson
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CIM-10 Chapitre 12 : Maladies de la peau et du tissu cellulaire sous-cutané (L00-L99)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_12_:_Maladies_de_la_peau_et_du_tissu_cellulaire_sous-cutané</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_12_:_Maladies_de_la_peau_et_du_tissu_cellulaire_sous-cutan%C3%A9</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(L00-L08) Infections de la peau et du tissu cellulaire sous-cutané</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(L00) Syndrome d'épidermolyse staphylococcique du nourrisson
 (L01) Impétigo
 (L01.0) Impétigo (tout micro-organisme) (toute localisation)
 Impétigo de Bockhart
@@ -549,9 +598,43 @@
 (L08.0) Pyodermite
 (L08.1) Erythrasma
 (L08.8) Autres infections localisées précisées de la peau et du tissu cellulaire sous-cutané
-(L08.9) Infection localisée de la peau et du tissu cellulaire sous-cutané, sans précision
-(L10-L14) Dermatoses bulleuses
-(L10) Pemphigus
+(L08.9) Infection localisée de la peau et du tissu cellulaire sous-cutané, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_12_:_Maladies_de_la_peau_et_du_tissu_cellulaire_sous-cutané</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_12_:_Maladies_de_la_peau_et_du_tissu_cellulaire_sous-cutan%C3%A9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(L10-L14) Dermatoses bulleuses</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(L10) Pemphigus
 (L10.0) Pemphigus vulgaire
 (L10.1) Pemphigus végétant
 (L10.2) Pemphigus foliacé
@@ -580,9 +663,43 @@
 Maladie de Sneddon-Wilkinson
 (L13.8) Autres dermatoses bulleuses précisées
 (L13.9) Dermatose bulleuse, sans précision
-(L14) Dermatoses bulleuses au cours de maladies classées ailleurs
-(L20-L30) Dermatoses et eczéma (syndrome)s
-(L20) Dermite atopique
+(L14) Dermatoses bulleuses au cours de maladies classées ailleurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_12_:_Maladies_de_la_peau_et_du_tissu_cellulaire_sous-cutané</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_12_:_Maladies_de_la_peau_et_du_tissu_cellulaire_sous-cutan%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(L20-L30) Dermatoses et eczéma (syndrome)s</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(L20) Dermite atopique
 (L20.0) Prurigo de Besnier
 (L20.8) Autres dermites atopiques
 (L21) Dermite séborrhéique
@@ -653,9 +770,43 @@
 (L30.4) Intertrigo érythémateux
 (L30.5) Pityriasis alba
 (L30.8) Autres dermites précisées
-(L30.9) Dermite, sans précision
-(L40-L45) Lésions papulo-squameuses
-(L40) Psoriasis
+(L30.9) Dermite, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_12_:_Maladies_de_la_peau_et_du_tissu_cellulaire_sous-cutané</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_12_:_Maladies_de_la_peau_et_du_tissu_cellulaire_sous-cutan%C3%A9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(L40-L45) Lésions papulo-squameuses</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(L40) Psoriasis
 (L40.0) Psoriasis vulgaris
 (L40.1) Psoriasis pustulaire généralisé
 Impétigo herpétiforme
@@ -693,9 +844,43 @@
 (L44.4) Acrodermatite érythématopapuleuse infantile (Giannotti-Crosti)
 (L44.8) Autres lésions papulo-squameuses précisées
 (L44.9) Lésion papulo-squameuse, sans précision
-(L45) Lésions papulo-squameuses au cours de maladies classées ailleurs
-(L50-L54) Urticaire et érythème
-(L50) Urticaire
+(L45) Lésions papulo-squameuses au cours de maladies classées ailleurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_12_:_Maladies_de_la_peau_et_du_tissu_cellulaire_sous-cutané</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_12_:_Maladies_de_la_peau_et_du_tissu_cellulaire_sous-cutan%C3%A9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(L50-L54) Urticaire et érythème</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(L50) Urticaire
 (L50.0) Urticaire allergique
 (L50.1) Urticaire idiopathique
 (L50.2) Urticaire provoquée par le froid et la chaleur
@@ -722,9 +907,43 @@
 (L53.9) Erythème, sans précision
 (L54) Erythèmes au cours de maladies classées ailleurs
 (L54.0) Erythème marginé discoïde de Besnier au cours d'un rhumatisme articulaire aigu (I00+)
-(L54.8) Erythème au cours d'autres maladies classées ailleurs
-(L55-L59) Affections de la peau et du tissu cellulaire sous-cutané liées à une irradiation
-(L55) Coup de soleil
+(L54.8) Erythème au cours d'autres maladies classées ailleurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_12_:_Maladies_de_la_peau_et_du_tissu_cellulaire_sous-cutané</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_12_:_Maladies_de_la_peau_et_du_tissu_cellulaire_sous-cutan%C3%A9</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(L55-L59) Affections de la peau et du tissu cellulaire sous-cutané liées à une irradiation</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(L55) Coup de soleil
 (L55.0) Coup de soleil du premier degré
 (L55.1) Coup de soleil du deuxième degré
 (L55.2) Coup de soleil du troisième degré
@@ -759,9 +978,43 @@
 (L59) Autres affections de la peau et du tissu cellulaire sous-cutané liées à une irradiation
 (L59.0) Erythème dû au feu (dermite due au feu)
 (L59.8) Autres affections précisées de la peau et du tissu cellulaire sous-cutané liées à une irradiation
-(L59.9) Affection de la peau et du tissu cellulaire sous-cutané liée à une irradiation, sans précision
-(L60-L75) Maladies des phanères et des annexes de la peau
-(L60) Maladies des ongles
+(L59.9) Affection de la peau et du tissu cellulaire sous-cutané liée à une irradiation, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_12_:_Maladies_de_la_peau_et_du_tissu_cellulaire_sous-cutané</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_12_:_Maladies_de_la_peau_et_du_tissu_cellulaire_sous-cutan%C3%A9</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(L60-L75) Maladies des phanères et des annexes de la peau</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(L60) Maladies des ongles
 (L60.0) Ongle incarné
 (L60.1) Onycholyse
 (L60.2) Onychogryphose
@@ -856,9 +1109,43 @@
 (L75.2) Miliaire apocrine
 Maladie de Fox-Fordyce
 (L75.8) Autres infections des glandes sudoripares apocrines
-(L75.9) Infections des glandes sudoripares apocrines, sans précision
-(L80-L99) Autres infections de la peau et du tissu cellulaire sous-cutané
-(L80) Vitiligo
+(L75.9) Infections des glandes sudoripares apocrines, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_12_:_Maladies_de_la_peau_et_du_tissu_cellulaire_sous-cutané</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_12_:_Maladies_de_la_peau_et_du_tissu_cellulaire_sous-cutan%C3%A9</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(L80-L99) Autres infections de la peau et du tissu cellulaire sous-cutané</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(L80) Vitiligo
 (L81) Autres anomalies de la pigmentation
 (L81.0) Hyperpigmentation postinflammatoire
 (L81.1) Chloasma
